--- a/ASK-2024-Komuna-Gjinia-Mosha.xlsx
+++ b/ASK-2024-Komuna-Gjinia-Mosha.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\OneDrive\Documents\2025\Innovation\sample-automatization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{396B0752-149E-4CA3-B5F1-FD6EEE3726A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BCC471-6506-4079-B7C4-8138082B9A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="census_00" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -295,9 +295,6 @@
     <t>Gjakovë</t>
   </si>
   <si>
-    <t>Gllogovc</t>
-  </si>
-  <si>
     <t>Gjilan</t>
   </si>
   <si>
@@ -320,9 +317,6 @@
   </si>
   <si>
     <t>Mitrovicë</t>
-  </si>
-  <si>
-    <t>Leposaviq</t>
   </si>
   <si>
     <t>Lipjan</t>
@@ -349,9 +343,6 @@
     <t>Prizren</t>
   </si>
   <si>
-    <t>Skenderaj</t>
-  </si>
-  <si>
     <t>Shtime</t>
   </si>
   <si>
@@ -373,9 +364,6 @@
     <t>Zubin Potok</t>
   </si>
   <si>
-    <t>Zveqan</t>
-  </si>
-  <si>
     <t>Malishevë</t>
   </si>
   <si>
@@ -383,9 +371,6 @@
   </si>
   <si>
     <t>Mamushë</t>
-  </si>
-  <si>
-    <t>Hani i Elezit</t>
   </si>
   <si>
     <t>Graçanicë</t>
@@ -407,6 +392,21 @@
   </si>
   <si>
     <t>Komuna</t>
+  </si>
+  <si>
+    <t>Leposavic</t>
+  </si>
+  <si>
+    <t>Gllogoc</t>
+  </si>
+  <si>
+    <t>Han i Elezit</t>
+  </si>
+  <si>
+    <t>Skënderaj</t>
+  </si>
+  <si>
+    <t>Zvecan</t>
   </si>
 </sst>
 </file>
@@ -756,7 +756,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FT77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -765,10 +767,10 @@
   <sheetData>
     <row r="1" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1572,7 +1574,7 @@
     </row>
     <row r="4" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
@@ -1841,7 +1843,7 @@
     </row>
     <row r="5" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>0</v>
@@ -2110,7 +2112,7 @@
     </row>
     <row r="6" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>0</v>
@@ -2379,7 +2381,7 @@
     </row>
     <row r="7" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>0</v>
@@ -2648,7 +2650,7 @@
     </row>
     <row r="8" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>0</v>
@@ -2917,7 +2919,7 @@
     </row>
     <row r="9" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>0</v>
@@ -3186,7 +3188,7 @@
     </row>
     <row r="10" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>0</v>
@@ -3455,7 +3457,7 @@
     </row>
     <row r="11" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>0</v>
@@ -3724,7 +3726,7 @@
     </row>
     <row r="12" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>0</v>
@@ -3993,7 +3995,7 @@
     </row>
     <row r="13" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>0</v>
@@ -4262,7 +4264,7 @@
     </row>
     <row r="14" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>0</v>
@@ -4531,7 +4533,7 @@
     </row>
     <row r="15" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>0</v>
@@ -4800,7 +4802,7 @@
     </row>
     <row r="16" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>0</v>
@@ -5069,7 +5071,7 @@
     </row>
     <row r="17" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>0</v>
@@ -5338,7 +5340,7 @@
     </row>
     <row r="18" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>0</v>
@@ -5607,7 +5609,7 @@
     </row>
     <row r="19" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>0</v>
@@ -5876,7 +5878,7 @@
     </row>
     <row r="20" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>0</v>
@@ -6145,7 +6147,7 @@
     </row>
     <row r="21" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>0</v>
@@ -6414,7 +6416,7 @@
     </row>
     <row r="22" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>0</v>
@@ -6683,7 +6685,7 @@
     </row>
     <row r="23" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>0</v>
@@ -6952,7 +6954,7 @@
     </row>
     <row r="24" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>0</v>
@@ -7221,7 +7223,7 @@
     </row>
     <row r="25" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>0</v>
@@ -7490,7 +7492,7 @@
     </row>
     <row r="26" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>0</v>
@@ -7759,7 +7761,7 @@
     </row>
     <row r="27" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>0</v>
@@ -8028,7 +8030,7 @@
     </row>
     <row r="28" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>0</v>
@@ -8297,7 +8299,7 @@
     </row>
     <row r="29" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>0</v>
@@ -8566,7 +8568,7 @@
     </row>
     <row r="30" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>0</v>
@@ -8835,7 +8837,7 @@
     </row>
     <row r="31" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>0</v>
@@ -9104,7 +9106,7 @@
     </row>
     <row r="32" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>0</v>
@@ -9373,7 +9375,7 @@
     </row>
     <row r="33" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>0</v>
@@ -9642,7 +9644,7 @@
     </row>
     <row r="34" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>0</v>
@@ -9911,7 +9913,7 @@
     </row>
     <row r="35" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>0</v>
@@ -10180,7 +10182,7 @@
     </row>
     <row r="36" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>0</v>
@@ -10449,7 +10451,7 @@
     </row>
     <row r="37" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>0</v>
@@ -10718,7 +10720,7 @@
     </row>
     <row r="38" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>0</v>
@@ -10987,7 +10989,7 @@
     </row>
     <row r="39" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>0</v>
@@ -12316,7 +12318,7 @@
     </row>
     <row r="42" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>1</v>
@@ -12846,7 +12848,7 @@
     </row>
     <row r="43" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>1</v>
@@ -13376,7 +13378,7 @@
     </row>
     <row r="44" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>1</v>
@@ -13906,7 +13908,7 @@
     </row>
     <row r="45" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>1</v>
@@ -14436,7 +14438,7 @@
     </row>
     <row r="46" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>1</v>
@@ -14966,7 +14968,7 @@
     </row>
     <row r="47" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>1</v>
@@ -15496,7 +15498,7 @@
     </row>
     <row r="48" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>1</v>
@@ -16026,7 +16028,7 @@
     </row>
     <row r="49" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>1</v>
@@ -16556,7 +16558,7 @@
     </row>
     <row r="50" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>1</v>
@@ -17086,7 +17088,7 @@
     </row>
     <row r="51" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>1</v>
@@ -17616,7 +17618,7 @@
     </row>
     <row r="52" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>1</v>
@@ -18146,7 +18148,7 @@
     </row>
     <row r="53" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>1</v>
@@ -18676,7 +18678,7 @@
     </row>
     <row r="54" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>1</v>
@@ -19206,7 +19208,7 @@
     </row>
     <row r="55" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>1</v>
@@ -19736,7 +19738,7 @@
     </row>
     <row r="56" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>1</v>
@@ -20266,7 +20268,7 @@
     </row>
     <row r="57" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>1</v>
@@ -20796,7 +20798,7 @@
     </row>
     <row r="58" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>1</v>
@@ -21326,7 +21328,7 @@
     </row>
     <row r="59" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>1</v>
@@ -21856,7 +21858,7 @@
     </row>
     <row r="60" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>1</v>
@@ -22386,7 +22388,7 @@
     </row>
     <row r="61" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>1</v>
@@ -22916,7 +22918,7 @@
     </row>
     <row r="62" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>1</v>
@@ -23446,7 +23448,7 @@
     </row>
     <row r="63" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>1</v>
@@ -23976,7 +23978,7 @@
     </row>
     <row r="64" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>1</v>
@@ -24506,7 +24508,7 @@
     </row>
     <row r="65" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>1</v>
@@ -25036,7 +25038,7 @@
     </row>
     <row r="66" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>1</v>
@@ -25566,7 +25568,7 @@
     </row>
     <row r="67" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>1</v>
@@ -26096,7 +26098,7 @@
     </row>
     <row r="68" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>1</v>
@@ -26626,7 +26628,7 @@
     </row>
     <row r="69" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>1</v>
@@ -27156,7 +27158,7 @@
     </row>
     <row r="70" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>1</v>
@@ -27686,7 +27688,7 @@
     </row>
     <row r="71" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>1</v>
@@ -28216,7 +28218,7 @@
     </row>
     <row r="72" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>1</v>
@@ -28746,7 +28748,7 @@
     </row>
     <row r="73" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>1</v>
@@ -29276,7 +29278,7 @@
     </row>
     <row r="74" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>1</v>
@@ -29806,7 +29808,7 @@
     </row>
     <row r="75" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>1</v>
@@ -30336,7 +30338,7 @@
     </row>
     <row r="76" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>1</v>
@@ -30866,7 +30868,7 @@
     </row>
     <row r="77" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>1</v>
